--- a/biology/Zoologie/Culexiregiloricus_trichiscalida/Culexiregiloricus_trichiscalida.xlsx
+++ b/biology/Zoologie/Culexiregiloricus_trichiscalida/Culexiregiloricus_trichiscalida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Culexiregiloricus trichiscalida est une espèce de loricifères de la famille des Nanaloricidae, la seule du genre Culexiregiloricus.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été découverte à 4 141 mètres de profondeur dans le bassin de Guinée dans l'océan Atlantique Sud, au sud de la Côte d'Ivoire en 2005 lors de l'expédition DIVA 2 dans des sédiments de foraminifères.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait 285 µm de long et 110 µm de diamètre.
 Le corps est composé de cellules et de tissu granulaires.
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gad, 2009 : Culexiregiloricus, a new genus of Nanaloricidae (Loricifera) from the deep sea of the Guinea Basin (Southeast Atlantic). Zootaxa, n. 2096 p. 33–49 texte original.</t>
         </is>
